--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkandola\Documents\GitHub\proflitproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD7C956-A7EA-411A-BC49-65002040C917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F27008-7DA9-4519-9B48-1BA14F9538DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{9A7A35FF-B219-43D0-B072-54213FD326BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Name of Company</t>
   </si>
@@ -75,12 +75,6 @@
   </si>
   <si>
     <t>HELLO</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>United States</t>
   </si>
 </sst>
 </file>
@@ -439,135 +433,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5967F68B-3C6A-4A6C-A087-9950EA90F6BC}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
       <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
